--- a/metrics/MAPE/upto time/Retinopatía de fondo (UPTO).xlsx
+++ b/metrics/MAPE/upto time/Retinopatía de fondo (UPTO).xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2138649230416.27</v>
+        <v>2211612856936.373</v>
       </c>
       <c r="C3" t="n">
-        <v>1983105296778.706</v>
+        <v>2108154271404.799</v>
       </c>
       <c r="D3" t="n">
-        <v>1956141838495.227</v>
+        <v>1995242545717.747</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3127550754856.519</v>
+        <v>3253936151883.353</v>
       </c>
       <c r="C4" t="n">
-        <v>3120626609589.502</v>
+        <v>3122600470852.306</v>
       </c>
       <c r="D4" t="n">
-        <v>3168790915975.805</v>
+        <v>3114628295499.278</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28986987110955.52</v>
+        <v>19475537026244.9</v>
       </c>
       <c r="C5" t="n">
-        <v>41365401886280.46</v>
+        <v>39426525344370.86</v>
       </c>
       <c r="D5" t="n">
-        <v>12945614874478.75</v>
+        <v>55709174460753.91</v>
       </c>
     </row>
   </sheetData>
